--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>I alt</t>
+  </si>
+  <si>
+    <t>10_11_2020</t>
   </si>
 </sst>
 </file>
@@ -450,99 +453,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="11.5703125" customWidth="1"/>
+    <col min="1" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
@@ -561,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
       </c>
       <c r="L2">
         <v>5</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>7</v>
       </c>
       <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
         <v>8</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>9</v>
-      </c>
-      <c r="Q2">
-        <v>10</v>
       </c>
       <c r="R2">
         <v>10</v>
@@ -597,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="T2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U2">
         <v>11</v>
@@ -614,12 +620,15 @@
       <c r="Y2">
         <v>11</v>
       </c>
+      <c r="Z2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
@@ -635,34 +644,34 @@
         <v>1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>7</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
       </c>
       <c r="K3">
         <v>8</v>
       </c>
       <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>9</v>
-      </c>
-      <c r="M3">
-        <v>10</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
         <v>12</v>
-      </c>
-      <c r="P3">
-        <v>13</v>
       </c>
       <c r="Q3">
         <v>13</v>
@@ -677,27 +686,30 @@
         <v>13</v>
       </c>
       <c r="U3">
+        <v>13</v>
+      </c>
+      <c r="V3">
         <v>14</v>
-      </c>
-      <c r="V3">
-        <v>15</v>
       </c>
       <c r="W3">
         <v>15</v>
       </c>
       <c r="X3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y3">
         <v>16</v>
       </c>
+      <c r="Z3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>10</v>
+      <c r="B4" s="1">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -706,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -715,37 +727,37 @@
         <v>11</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>20</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>21</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
       </c>
       <c r="M4">
         <v>23</v>
       </c>
       <c r="N4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O4">
         <v>25</v>
       </c>
       <c r="P4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4">
         <v>26</v>
       </c>
       <c r="R4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S4">
         <v>27</v>
@@ -754,63 +766,66 @@
         <v>27</v>
       </c>
       <c r="U4">
+        <v>27</v>
+      </c>
+      <c r="V4">
         <v>29</v>
-      </c>
-      <c r="V4">
-        <v>31</v>
       </c>
       <c r="W4">
         <v>31</v>
       </c>
       <c r="X4">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Y4">
         <v>33</v>
       </c>
+      <c r="Z4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22</v>
-      </c>
-      <c r="G5">
-        <v>26</v>
       </c>
       <c r="H5">
         <v>26</v>
       </c>
       <c r="I5">
+        <v>26</v>
+      </c>
+      <c r="J5">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>35</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>38</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>39</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>41</v>
-      </c>
-      <c r="N5">
-        <v>42</v>
       </c>
       <c r="O5">
         <v>42</v>
@@ -819,7 +834,7 @@
         <v>42</v>
       </c>
       <c r="Q5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R5">
         <v>44</v>
@@ -831,13 +846,13 @@
         <v>44</v>
       </c>
       <c r="U5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V5">
         <v>45</v>
       </c>
       <c r="W5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5">
         <v>46</v>
@@ -845,13 +860,16 @@
       <c r="Y5">
         <v>46</v>
       </c>
+      <c r="Z5">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>35</v>
+      <c r="B6" s="1">
+        <v>33</v>
       </c>
       <c r="C6">
         <v>35</v>
@@ -860,382 +878,397 @@
         <v>35</v>
       </c>
       <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="F6">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>42</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>62</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>70</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>76</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>82</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>85</v>
-      </c>
-      <c r="N6">
-        <v>90</v>
       </c>
       <c r="O6">
         <v>90</v>
       </c>
       <c r="P6">
+        <v>90</v>
+      </c>
+      <c r="Q6">
         <v>91</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>92</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>94</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>96</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>97</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>99</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>100</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>102</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>107</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>92</v>
+      </c>
+      <c r="C7">
         <v>98</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>102</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>107</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>115</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>125</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>135</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>153</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>166</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>180</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>193</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>201</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>206</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>212</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>214</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>217</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>222</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>229</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>237</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>243</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>251</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>254</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>261</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>263</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>132</v>
+      </c>
+      <c r="C8">
         <v>140</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>146</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>153</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>159</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>175</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>195</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>221</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>235</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>258</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>281</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>296</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>310</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>316</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>323</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>327</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>330</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>341</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>346</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>353</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>361</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>367</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>377</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>382</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>191</v>
+      </c>
+      <c r="C9">
         <v>208</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>220</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>227</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>240</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>259</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>285</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>319</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>366</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>391</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>416</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>438</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>450</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>459</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>476</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>486</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>493</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>500</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>511</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>519</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>525</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>533</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>539</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>547</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>557</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>67</v>
+      </c>
+      <c r="C10">
         <v>69</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>71</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>78</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>81</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>94</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>103</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>113</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>119</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>132</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>142</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>143</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>155</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>157</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>160</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>162</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>165</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>166</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>167</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>170</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>171</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>172</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>173</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>174</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
       <c r="C11">
@@ -1248,7 +1281,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1260,16 +1293,16 @@
         <v>4</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>7</v>
       </c>
       <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11">
         <v>10</v>
-      </c>
-      <c r="M11">
-        <v>12</v>
       </c>
       <c r="N11">
         <v>12</v>
@@ -1305,106 +1338,113 @@
         <v>12</v>
       </c>
       <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12">
         <f>SUM(B2:B11)</f>
+        <v>542</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
         <v>579</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:Y12" si="0">SUM(C2:C11)</f>
+      <c r="D12">
+        <f t="shared" ref="D12:Z12" si="0">SUM(D2:D11)</f>
         <v>605</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>632</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>668</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>731</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>805</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>909</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>1104</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f t="shared" si="0"/>
         <v>1187</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="0"/>
         <v>1246</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>1299</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>1362</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="0"/>
         <v>1385</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>1407</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="0"/>
         <v>1436</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>1463</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>1489</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="0"/>
         <v>1518</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>1540</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="0"/>
         <v>1567</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="0"/>
         <v>1591</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>10_11_2020</t>
+  </si>
+  <si>
+    <t>04_05_2021</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +467,7 @@
     <col min="1" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +546,11 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -623,8 +629,11 @@
       <c r="Z2">
         <v>11</v>
       </c>
+      <c r="AA2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -703,8 +712,11 @@
       <c r="Z3">
         <v>16</v>
       </c>
+      <c r="AA3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="Z4">
         <v>33</v>
       </c>
+      <c r="AA4">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -863,8 +878,11 @@
       <c r="Z5">
         <v>46</v>
       </c>
+      <c r="AA5">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -943,8 +961,11 @@
       <c r="Z6">
         <v>110</v>
       </c>
+      <c r="AA6">
+        <v>113</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1044,11 @@
       <c r="Z7">
         <v>266</v>
       </c>
+      <c r="AA7">
+        <v>271</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1103,8 +1127,11 @@
       <c r="Z8">
         <v>392</v>
       </c>
+      <c r="AA8">
+        <v>402</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1183,8 +1210,11 @@
       <c r="Z9">
         <v>557</v>
       </c>
+      <c r="AA9">
+        <v>562</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1263,8 +1293,11 @@
       <c r="Z10">
         <v>176</v>
       </c>
+      <c r="AA10">
+        <v>177</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1343,8 +1376,11 @@
       <c r="Z11">
         <v>13</v>
       </c>
+      <c r="AA11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1357,7 +1393,7 @@
         <v>579</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:Z12" si="0">SUM(D2:D11)</f>
+        <f t="shared" ref="D12:AA12" si="0">SUM(D2:D11)</f>
         <v>605</v>
       </c>
       <c r="E12">
@@ -1447,6 +1483,10 @@
       <c r="Z12">
         <f t="shared" si="0"/>
         <v>1620</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>1646</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>04_05_2021</t>
+  </si>
+  <si>
+    <t>11_05_2021</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +470,7 @@
     <col min="1" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +552,11 @@
       <c r="AA1" t="s">
         <v>37</v>
       </c>
+      <c r="AB1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -632,8 +638,11 @@
       <c r="AA2">
         <v>12</v>
       </c>
+      <c r="AB2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -715,8 +724,11 @@
       <c r="AA3">
         <v>16</v>
       </c>
+      <c r="AB3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -798,8 +810,11 @@
       <c r="AA4">
         <v>33</v>
       </c>
+      <c r="AB4">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -881,8 +896,11 @@
       <c r="AA5">
         <v>47</v>
       </c>
+      <c r="AB5">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -964,8 +982,11 @@
       <c r="AA6">
         <v>113</v>
       </c>
+      <c r="AB6">
+        <v>117</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1047,8 +1068,11 @@
       <c r="AA7">
         <v>271</v>
       </c>
+      <c r="AB7">
+        <v>274</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1130,8 +1154,11 @@
       <c r="AA8">
         <v>402</v>
       </c>
+      <c r="AB8">
+        <v>406</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1213,8 +1240,11 @@
       <c r="AA9">
         <v>562</v>
       </c>
+      <c r="AB9">
+        <v>566</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1296,8 +1326,11 @@
       <c r="AA10">
         <v>177</v>
       </c>
+      <c r="AB10">
+        <v>177</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1379,8 +1412,11 @@
       <c r="AA11">
         <v>13</v>
       </c>
+      <c r="AB11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1485,8 +1521,12 @@
         <v>1620</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="0"/>
+        <f>SUM(AA2:AA11)</f>
         <v>1646</v>
+      </c>
+      <c r="AB12">
+        <f>SUM(AB2:AB11)</f>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>11_05_2021</t>
+  </si>
+  <si>
+    <t>18_05_2021</t>
   </si>
 </sst>
 </file>
@@ -459,18 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="11.5703125" customWidth="1"/>
+    <col min="1" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="29" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,8 +559,11 @@
       <c r="AB1" t="s">
         <v>38</v>
       </c>
+      <c r="AC1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -641,8 +648,11 @@
       <c r="AB2">
         <v>12</v>
       </c>
+      <c r="AC2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -727,8 +737,11 @@
       <c r="AB3">
         <v>16</v>
       </c>
+      <c r="AC3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -813,8 +826,11 @@
       <c r="AB4">
         <v>34</v>
       </c>
+      <c r="AC4">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -899,8 +915,11 @@
       <c r="AB5">
         <v>48</v>
       </c>
+      <c r="AC5">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -985,8 +1004,11 @@
       <c r="AB6">
         <v>117</v>
       </c>
+      <c r="AC6">
+        <v>121</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1093,11 @@
       <c r="AB7">
         <v>274</v>
       </c>
+      <c r="AC7">
+        <v>282</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1157,8 +1182,11 @@
       <c r="AB8">
         <v>406</v>
       </c>
+      <c r="AC8">
+        <v>410</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1243,8 +1271,11 @@
       <c r="AB9">
         <v>566</v>
       </c>
+      <c r="AC9">
+        <v>569</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1329,8 +1360,11 @@
       <c r="AB10">
         <v>177</v>
       </c>
+      <c r="AC10">
+        <v>178</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1415,8 +1449,11 @@
       <c r="AB11">
         <v>13</v>
       </c>
+      <c r="AC11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1429,7 +1466,7 @@
         <v>579</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:AA12" si="0">SUM(D2:D11)</f>
+        <f t="shared" ref="D12:Z12" si="0">SUM(D2:D11)</f>
         <v>605</v>
       </c>
       <c r="E12">
@@ -1527,6 +1564,10 @@
       <c r="AB12">
         <f>SUM(AB2:AB11)</f>
         <v>1663</v>
+      </c>
+      <c r="AC12">
+        <f>SUM(AC2:AC11)</f>
+        <v>1685</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>18_05_2021</t>
+  </si>
+  <si>
+    <t>25_05_2021</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +477,7 @@
     <col min="25" max="29" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -651,8 +657,11 @@
       <c r="AC2">
         <v>12</v>
       </c>
+      <c r="AD2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -740,8 +749,11 @@
       <c r="AC3">
         <v>16</v>
       </c>
+      <c r="AD3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -829,8 +841,11 @@
       <c r="AC4">
         <v>36</v>
       </c>
+      <c r="AD4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -918,8 +933,11 @@
       <c r="AC5">
         <v>48</v>
       </c>
+      <c r="AD5">
+        <v>48</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1007,8 +1025,11 @@
       <c r="AC6">
         <v>121</v>
       </c>
+      <c r="AD6">
+        <v>124</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1096,8 +1117,11 @@
       <c r="AC7">
         <v>282</v>
       </c>
+      <c r="AD7">
+        <v>287</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1185,8 +1209,11 @@
       <c r="AC8">
         <v>410</v>
       </c>
+      <c r="AD8">
+        <v>417</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1274,8 +1301,11 @@
       <c r="AC9">
         <v>569</v>
       </c>
+      <c r="AD9">
+        <v>574</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1363,8 +1393,11 @@
       <c r="AC10">
         <v>178</v>
       </c>
+      <c r="AD10">
+        <v>178</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1452,8 +1485,11 @@
       <c r="AC11">
         <v>13</v>
       </c>
+      <c r="AD11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1568,6 +1604,10 @@
       <c r="AC12">
         <f>SUM(AC2:AC11)</f>
         <v>1685</v>
+      </c>
+      <c r="AD12">
+        <f>SUM(AD2:AD11)</f>
+        <v>1707</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>25_05_2021</t>
+  </si>
+  <si>
+    <t>01_06_2021</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AD15" sqref="AD15"/>
@@ -477,7 +480,7 @@
     <col min="25" max="29" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +571,11 @@
       <c r="AD1" t="s">
         <v>40</v>
       </c>
+      <c r="AE1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -660,8 +666,11 @@
       <c r="AD2">
         <v>12</v>
       </c>
+      <c r="AE2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -752,8 +761,11 @@
       <c r="AD3">
         <v>17</v>
       </c>
+      <c r="AE3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -844,8 +856,11 @@
       <c r="AD4">
         <v>37</v>
       </c>
+      <c r="AE4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -936,8 +951,11 @@
       <c r="AD5">
         <v>48</v>
       </c>
+      <c r="AE5">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1028,8 +1046,11 @@
       <c r="AD6">
         <v>124</v>
       </c>
+      <c r="AE6">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1120,8 +1141,11 @@
       <c r="AD7">
         <v>287</v>
       </c>
+      <c r="AE7">
+        <v>295</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1212,8 +1236,11 @@
       <c r="AD8">
         <v>417</v>
       </c>
+      <c r="AE8">
+        <v>419</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1304,8 +1331,11 @@
       <c r="AD9">
         <v>574</v>
       </c>
+      <c r="AE9">
+        <v>575</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1396,8 +1426,11 @@
       <c r="AD10">
         <v>178</v>
       </c>
+      <c r="AE10">
+        <v>179</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1488,8 +1521,11 @@
       <c r="AD11">
         <v>13</v>
       </c>
+      <c r="AE11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1608,6 +1644,10 @@
       <c r="AD12">
         <f>SUM(AD2:AD11)</f>
         <v>1707</v>
+      </c>
+      <c r="AE12">
+        <f>SUM(AE2:AE11)</f>
+        <v>1726</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>01_06_2021</t>
+  </si>
+  <si>
+    <t>08_06_2021</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +483,7 @@
     <col min="25" max="29" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +577,11 @@
       <c r="AE1" t="s">
         <v>41</v>
       </c>
+      <c r="AF1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -669,8 +675,11 @@
       <c r="AE2">
         <v>12</v>
       </c>
+      <c r="AF2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -764,8 +773,11 @@
       <c r="AE3">
         <v>17</v>
       </c>
+      <c r="AF3">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -859,8 +871,11 @@
       <c r="AE4">
         <v>37</v>
       </c>
+      <c r="AF4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -954,8 +969,11 @@
       <c r="AE5">
         <v>51</v>
       </c>
+      <c r="AF5">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1049,8 +1067,11 @@
       <c r="AE6">
         <v>128</v>
       </c>
+      <c r="AF6">
+        <v>131</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1144,8 +1165,11 @@
       <c r="AE7">
         <v>295</v>
       </c>
+      <c r="AF7">
+        <v>296</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1239,8 +1263,11 @@
       <c r="AE8">
         <v>419</v>
       </c>
+      <c r="AF8">
+        <v>422</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1334,8 +1361,11 @@
       <c r="AE9">
         <v>575</v>
       </c>
+      <c r="AF9">
+        <v>575</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1429,8 +1459,11 @@
       <c r="AE10">
         <v>179</v>
       </c>
+      <c r="AF10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1524,8 +1557,11 @@
       <c r="AE11">
         <v>13</v>
       </c>
+      <c r="AF11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1648,6 +1684,10 @@
       <c r="AE12">
         <f>SUM(AE2:AE11)</f>
         <v>1726</v>
+      </c>
+      <c r="AF12">
+        <f>SUM(AF2:AF11)</f>
+        <v>1736</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>08_06_2021</t>
+  </si>
+  <si>
+    <t>15_06_2021</t>
   </si>
 </sst>
 </file>
@@ -471,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="24" width="11.5703125" customWidth="1"/>
-    <col min="25" max="29" width="11.7109375" customWidth="1"/>
+    <col min="25" max="41" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +583,11 @@
       <c r="AF1" t="s">
         <v>42</v>
       </c>
+      <c r="AG1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -678,8 +684,11 @@
       <c r="AF2">
         <v>13</v>
       </c>
+      <c r="AG2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -776,8 +785,11 @@
       <c r="AF3">
         <v>18</v>
       </c>
+      <c r="AG3">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -874,8 +886,11 @@
       <c r="AF4">
         <v>37</v>
       </c>
+      <c r="AG4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -972,8 +987,11 @@
       <c r="AF5">
         <v>51</v>
       </c>
+      <c r="AG5">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1070,8 +1088,11 @@
       <c r="AF6">
         <v>131</v>
       </c>
+      <c r="AG6">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1168,8 +1189,11 @@
       <c r="AF7">
         <v>296</v>
       </c>
+      <c r="AG7">
+        <v>298</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1266,8 +1290,11 @@
       <c r="AF8">
         <v>422</v>
       </c>
+      <c r="AG8">
+        <v>424</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1364,8 +1391,11 @@
       <c r="AF9">
         <v>575</v>
       </c>
+      <c r="AG9">
+        <v>578</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1462,8 +1492,11 @@
       <c r="AF10">
         <v>180</v>
       </c>
+      <c r="AG10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1560,8 +1593,11 @@
       <c r="AF11">
         <v>13</v>
       </c>
+      <c r="AG11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1666,28 +1702,32 @@
         <v>1620</v>
       </c>
       <c r="AA12">
-        <f>SUM(AA2:AA11)</f>
+        <f t="shared" ref="AA12:AG12" si="1">SUM(AA2:AA11)</f>
         <v>1646</v>
       </c>
       <c r="AB12">
-        <f>SUM(AB2:AB11)</f>
+        <f t="shared" si="1"/>
         <v>1663</v>
       </c>
       <c r="AC12">
-        <f>SUM(AC2:AC11)</f>
+        <f t="shared" si="1"/>
         <v>1685</v>
       </c>
       <c r="AD12">
-        <f>SUM(AD2:AD11)</f>
+        <f t="shared" si="1"/>
         <v>1707</v>
       </c>
       <c r="AE12">
-        <f>SUM(AE2:AE11)</f>
+        <f t="shared" si="1"/>
         <v>1726</v>
       </c>
       <c r="AF12">
-        <f>SUM(AF2:AF11)</f>
+        <f t="shared" si="1"/>
         <v>1736</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="1"/>
+        <v>1749</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>15_06_2021</t>
+  </si>
+  <si>
+    <t>22_06_2021</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +489,7 @@
     <col min="25" max="41" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +589,11 @@
       <c r="AG1" t="s">
         <v>43</v>
       </c>
+      <c r="AH1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -687,8 +693,11 @@
       <c r="AG2">
         <v>13</v>
       </c>
+      <c r="AH2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -788,8 +797,11 @@
       <c r="AG3">
         <v>19</v>
       </c>
+      <c r="AH3">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,8 +901,11 @@
       <c r="AG4">
         <v>37</v>
       </c>
+      <c r="AH4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -990,8 +1005,11 @@
       <c r="AG5">
         <v>54</v>
       </c>
+      <c r="AH5">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1091,8 +1109,11 @@
       <c r="AG6">
         <v>133</v>
       </c>
+      <c r="AH6">
+        <v>137</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="AG7">
         <v>298</v>
       </c>
+      <c r="AH7">
+        <v>300</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1293,8 +1317,11 @@
       <c r="AG8">
         <v>424</v>
       </c>
+      <c r="AH8">
+        <v>426</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1394,8 +1421,11 @@
       <c r="AG9">
         <v>578</v>
       </c>
+      <c r="AH9">
+        <v>578</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1495,8 +1525,11 @@
       <c r="AG10">
         <v>180</v>
       </c>
+      <c r="AH10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1596,8 +1629,11 @@
       <c r="AG11">
         <v>13</v>
       </c>
+      <c r="AH11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1702,7 +1738,7 @@
         <v>1620</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12:AG12" si="1">SUM(AA2:AA11)</f>
+        <f t="shared" ref="AA12:AH12" si="1">SUM(AA2:AA11)</f>
         <v>1646</v>
       </c>
       <c r="AB12">
@@ -1728,6 +1764,10 @@
       <c r="AG12">
         <f t="shared" si="1"/>
         <v>1749</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="1"/>
+        <v>1759</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>22_06_2021</t>
+  </si>
+  <si>
+    <t>29_06_2021</t>
   </si>
 </sst>
 </file>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
     <col min="25" max="41" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -592,8 +595,11 @@
       <c r="AH1" t="s">
         <v>44</v>
       </c>
+      <c r="AI1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -696,8 +702,11 @@
       <c r="AH2">
         <v>13</v>
       </c>
+      <c r="AI2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="AH3">
         <v>19</v>
       </c>
+      <c r="AI3">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -904,8 +916,11 @@
       <c r="AH4">
         <v>37</v>
       </c>
+      <c r="AI4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1008,8 +1023,11 @@
       <c r="AH5">
         <v>56</v>
       </c>
+      <c r="AI5">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1112,8 +1130,11 @@
       <c r="AH6">
         <v>137</v>
       </c>
+      <c r="AI6">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1216,8 +1237,11 @@
       <c r="AH7">
         <v>300</v>
       </c>
+      <c r="AI7">
+        <v>301</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1320,8 +1344,11 @@
       <c r="AH8">
         <v>426</v>
       </c>
+      <c r="AI8">
+        <v>427</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1424,8 +1451,11 @@
       <c r="AH9">
         <v>578</v>
       </c>
+      <c r="AI9">
+        <v>578</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,8 +1558,11 @@
       <c r="AH10">
         <v>180</v>
       </c>
+      <c r="AI10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1632,8 +1665,11 @@
       <c r="AH11">
         <v>13</v>
       </c>
+      <c r="AI11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1774,7 @@
         <v>1620</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12:AH12" si="1">SUM(AA2:AA11)</f>
+        <f t="shared" ref="AA12:AI12" si="1">SUM(AA2:AA11)</f>
         <v>1646</v>
       </c>
       <c r="AB12">
@@ -1768,6 +1804,10 @@
       <c r="AH12">
         <f t="shared" si="1"/>
         <v>1759</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="1"/>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/DanskeData/Admitted/Intensiv.xlsx
+++ b/DanskeData/Admitted/Intensiv.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Aldersgruppe</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>29_06_2021</t>
+  </si>
+  <si>
+    <t>06_07_2021</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +495,7 @@
     <col min="25" max="41" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,8 +601,11 @@
       <c r="AI1" t="s">
         <v>45</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -705,8 +711,11 @@
       <c r="AI2">
         <v>13</v>
       </c>
+      <c r="AJ2">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="AI3">
         <v>19</v>
       </c>
+      <c r="AJ3">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -919,8 +931,11 @@
       <c r="AI4">
         <v>37</v>
       </c>
+      <c r="AJ4">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1026,8 +1041,11 @@
       <c r="AI5">
         <v>57</v>
       </c>
+      <c r="AJ5">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1133,8 +1151,11 @@
       <c r="AI6">
         <v>140</v>
       </c>
+      <c r="AJ6">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1240,8 +1261,11 @@
       <c r="AI7">
         <v>301</v>
       </c>
+      <c r="AJ7">
+        <v>301</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1347,8 +1371,11 @@
       <c r="AI8">
         <v>427</v>
       </c>
+      <c r="AJ8">
+        <v>427</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1454,8 +1481,11 @@
       <c r="AI9">
         <v>578</v>
       </c>
+      <c r="AJ9">
+        <v>579</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,8 +1591,11 @@
       <c r="AI10">
         <v>180</v>
       </c>
+      <c r="AJ10">
+        <v>180</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1668,8 +1701,11 @@
       <c r="AI11">
         <v>13</v>
       </c>
+      <c r="AJ11">
+        <v>13</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1810,7 @@
         <v>1620</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12:AI12" si="1">SUM(AA2:AA11)</f>
+        <f t="shared" ref="AA12:AJ12" si="1">SUM(AA2:AA11)</f>
         <v>1646</v>
       </c>
       <c r="AB12">
@@ -1808,6 +1844,10 @@
       <c r="AI12">
         <f t="shared" si="1"/>
         <v>1765</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="1"/>
+        <v>1766</v>
       </c>
     </row>
   </sheetData>
